--- a/DOC/FOC开发过程记录.xlsx
+++ b/DOC/FOC开发过程记录.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zager\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A4E0C4-6DE3-4981-8537-276F76A87536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CAFCC6-AC68-48A0-9654-0D996299F9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开环调试" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -1111,6 +1121,14 @@
   </si>
   <si>
     <t>无法转动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自给步进角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,29 +1231,29 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1656,290 +1674,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E4" s="2" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E11" s="2" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="5:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="5:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="5:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="5" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="5:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="8" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="5:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="4">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="5:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" t="s">
         <v>17</v>
       </c>
@@ -1952,41 +1970,41 @@
       <c r="O21" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E22" s="4"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="O22" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E23" s="4"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
       <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="O23" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E24" s="4">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" t="s">
@@ -1999,20 +2017,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E25" s="4"/>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
       <c r="F25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E26" s="4"/>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
       <c r="F26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E27" s="4">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -2025,28 +2043,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E28" s="4"/>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
       <c r="F28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E29" s="4"/>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
       <c r="F29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E30" s="4">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E30" s="2">
         <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" t="s">
         <v>25</v>
       </c>
@@ -2054,26 +2072,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E31" s="4"/>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E32" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
       <c r="F32" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E33" s="4">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" t="s">
@@ -2086,28 +2104,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="4"/>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
       <c r="F34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="4"/>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
       <c r="F35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E36" s="4">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" t="s">
         <v>29</v>
       </c>
@@ -2118,390 +2136,416 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E37" s="4"/>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
       <c r="F37" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E38" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E39" s="5" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="42" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D42" s="4">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="42" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D42" s="2">
         <v>4</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="7" t="s">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D43" s="4"/>
-      <c r="E43" s="6" t="s">
+    <row r="43" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D43" s="2"/>
+      <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D44" s="4"/>
-      <c r="E44" s="6" t="s">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D44" s="2"/>
+      <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="7" t="s">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D45" s="4"/>
-      <c r="E45" s="6" t="s">
+    <row r="45" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D45" s="2"/>
+      <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D46" s="4">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D46" s="2">
         <v>1</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="7" t="s">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D47" s="4"/>
-      <c r="E47" s="6" t="s">
+    <row r="47" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D47" s="2"/>
+      <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="4:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D48" s="4"/>
-      <c r="E48" s="6" t="s">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="4:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="D48" s="2"/>
+      <c r="E48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="7" t="s">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D49" s="4"/>
-      <c r="E49" s="6" t="s">
+    <row r="49" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D50" s="4">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="8" t="s">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D51" s="4"/>
-      <c r="E51" s="6" t="s">
+    <row r="51" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D51" s="2"/>
+      <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6" t="s">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D52" s="4"/>
-      <c r="E52" s="6" t="s">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D52" s="2"/>
+      <c r="E52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6" t="s">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E53" s="6" t="s">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="E53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D54" s="4">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D54" s="2">
         <v>3</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="N54" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D55" s="4"/>
-      <c r="N55" s="8"/>
-    </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D56" s="4"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="4">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D55" s="2"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D56" s="2"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D58" s="2">
         <v>5</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="N58" s="1" t="s">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="N58" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D59" s="4"/>
-      <c r="E59" s="6" t="s">
+    <row r="59" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D59" s="2"/>
+      <c r="E59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="4"/>
-      <c r="E60" s="6" t="s">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D60" s="2"/>
+      <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E61" s="6" t="s">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="E61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="4">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D62" s="2">
         <v>6</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D63" s="4"/>
-      <c r="E63" s="6" t="s">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="4:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D64" s="4"/>
-      <c r="E64" s="6" t="s">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="4:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="D64" s="2"/>
+      <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="5:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E65" s="6" t="s">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="5:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="E65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E15:N20"/>
+    <mergeCell ref="E5:F10"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="G30:I32"/>
+    <mergeCell ref="G36:I38"/>
+    <mergeCell ref="E39:N40"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="D54:D56"/>
     <mergeCell ref="O15:P20"/>
@@ -2518,36 +2562,289 @@
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:O45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="G30:I32"/>
-    <mergeCell ref="G36:I38"/>
-    <mergeCell ref="E39:N40"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E15:N20"/>
-    <mergeCell ref="E5:F10"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="E4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231CF6C-33DB-4416-9C5B-B15AD6E31D1E}">
+  <dimension ref="G6:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>PI()/180*G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f>G10+15</f>
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <f>PI()/180*G11</f>
+        <v>0.26179938779914941</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" ref="G12:G16" si="0">G11+15</f>
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <f>PI()/180*G12</f>
+        <v>0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H34" si="1">PI()/180*G13</f>
+        <v>0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.0471975511965976</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.3089969389957472</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" ref="G17:G29" si="2">G16+15</f>
+        <v>105</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.8325957145940461</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.0943951023931953</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>2.6179938779914944</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.8797932657906435</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3.4033920413889427</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>3.6651914291880923</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>3.9269908169872414</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>4.1887902047863905</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>4.4505895925855405</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>4.7123889803846897</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>4.9741883681838388</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" ref="G30:G34" si="3">G29+15</f>
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>5.2359877559829888</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>5.497787143782138</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>5.7595865315812871</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>6.0213859193804371</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/FOC开发过程记录.xlsx
+++ b/DOC/FOC开发过程记录.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CAFCC6-AC68-48A0-9654-0D996299F9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829137E-0DD7-4A41-8B61-30F7EB0A74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开环调试" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -1129,6 +1130,26 @@
   </si>
   <si>
     <t>自给步进角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分频系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,25 +1256,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,283 +1702,283 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="5:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="5:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="5:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" t="s">
         <v>17</v>
       </c>
@@ -1970,41 +1991,41 @@
       <c r="O21" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E22" s="2"/>
+      <c r="E22" s="6"/>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="O22" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
+      <c r="E23" s="6"/>
       <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="O23" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>2</v>
       </c>
       <c r="F24" t="s">
@@ -2018,19 +2039,19 @@
       </c>
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
+      <c r="E25" s="6"/>
       <c r="F25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E26" s="2"/>
+      <c r="E26" s="6"/>
       <c r="F26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E27" s="2">
+      <c r="E27" s="6">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -2044,27 +2065,27 @@
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E28" s="2"/>
+      <c r="E28" s="6"/>
       <c r="F28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E29" s="2"/>
+      <c r="E29" s="6"/>
       <c r="F29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E30" s="2">
+      <c r="E30" s="6">
         <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" t="s">
         <v>25</v>
       </c>
@@ -2073,25 +2094,25 @@
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E31" s="2"/>
+      <c r="E31" s="6"/>
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E32" s="2"/>
+      <c r="E32" s="6"/>
       <c r="F32" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E33" s="2">
+      <c r="E33" s="6">
         <v>5</v>
       </c>
       <c r="F33" t="s">
@@ -2105,27 +2126,27 @@
       </c>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E34" s="2"/>
+      <c r="E34" s="6"/>
       <c r="F34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="2"/>
+      <c r="E35" s="6"/>
       <c r="F35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" t="s">
         <v>29</v>
       </c>
@@ -2137,51 +2158,51 @@
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
+      <c r="E37" s="6"/>
       <c r="F37" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E38" s="2"/>
+      <c r="E38" s="6"/>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="42" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D42" s="2">
+      <c r="D42" s="6">
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2197,12 +2218,12 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D43" s="2"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2216,10 +2237,10 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="5"/>
+      <c r="N43" s="8"/>
     </row>
     <row r="44" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D44" s="2"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
@@ -2233,15 +2254,15 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D45" s="2"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2255,11 +2276,11 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="2"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D46" s="2">
+      <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2275,15 +2296,15 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D47" s="2"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2297,11 +2318,11 @@
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="3"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="7"/>
     </row>
     <row r="48" spans="4:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="D48" s="2"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,12 +2336,12 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D49" s="2"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2334,10 +2355,10 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="5"/>
+      <c r="N49" s="8"/>
     </row>
     <row r="50" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D50" s="2">
+      <c r="D50" s="6">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2353,12 +2374,12 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D51" s="2"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2372,10 +2393,10 @@
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D52" s="2"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="1" t="s">
         <v>33</v>
       </c>
@@ -2389,7 +2410,7 @@
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="3"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="4:14" ht="18" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
@@ -2405,29 +2426,29 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="7"/>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D54" s="2">
+      <c r="D54" s="6">
         <v>3</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D55" s="2"/>
-      <c r="N55" s="3"/>
+      <c r="D55" s="6"/>
+      <c r="N55" s="7"/>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D56" s="2"/>
-      <c r="N56" s="3"/>
+      <c r="D56" s="6"/>
+      <c r="N56" s="7"/>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="N57" s="3"/>
+      <c r="N57" s="7"/>
     </row>
     <row r="58" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D58" s="2">
+      <c r="D58" s="6">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2438,12 +2459,12 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="N58" s="4" t="s">
+      <c r="N58" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D59" s="2"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2452,10 +2473,10 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="N59" s="4"/>
+      <c r="N59" s="3"/>
     </row>
     <row r="60" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D60" s="2"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
@@ -2464,7 +2485,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="N60" s="4"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" spans="4:14" ht="18" x14ac:dyDescent="0.3">
       <c r="E61" s="1" t="s">
@@ -2475,10 +2496,10 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="N61" s="4"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D62" s="2">
+      <c r="D62" s="6">
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2490,7 +2511,7 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D63" s="2"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2521,7 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="4:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="D64" s="2"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
@@ -2520,32 +2541,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E15:N20"/>
-    <mergeCell ref="E5:F10"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="E4:O4"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="G30:I32"/>
-    <mergeCell ref="G36:I38"/>
-    <mergeCell ref="E39:N40"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="D54:D56"/>
     <mergeCell ref="O15:P20"/>
@@ -2562,6 +2557,32 @@
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:O45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="G30:I32"/>
+    <mergeCell ref="G36:I38"/>
+    <mergeCell ref="E39:N40"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E15:N20"/>
+    <mergeCell ref="E5:F10"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2574,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231CF6C-33DB-4416-9C5B-B15AD6E31D1E}">
   <dimension ref="G6:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2847,4 +2868,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E003D389-B2D9-4B5B-AF49-3817AE6E66E7}">
+  <dimension ref="J13:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="13" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>168</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>